--- a/data_raw/item_banks/SRS_itembank.xlsx
+++ b/data_raw/item_banks/SRS_itembank.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\science\DOTS\development\packages\mpipoet\data_raw\item_banks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67FBA8EE-3C6F-45E3-8546-E25422AE808D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60F128BE-3D2B-47B9-9A77-04F6F4421C17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F25810CC-C51F-2546-B028-E8AB54E0A732}"/>
+    <workbookView xWindow="4845" yWindow="4845" windowWidth="21600" windowHeight="11385" xr2:uid="{F25810CC-C51F-2546-B028-E8AB54E0A732}"/>
   </bookViews>
   <sheets>
     <sheet name="SRS_items" sheetId="1" r:id="rId1"/>
@@ -216,9 +216,6 @@
     <t>Niedergang</t>
   </si>
   <si>
-    <t>Zauberer</t>
-  </si>
-  <si>
     <t>Einzelhaft</t>
   </si>
   <si>
@@ -532,6 +529,9 @@
   </si>
   <si>
     <t>Handelspartner</t>
+  </si>
+  <si>
+    <t>Gleichgewicht</t>
   </si>
 </sst>
 </file>
@@ -893,7 +893,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:H39"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -931,7 +931,7 @@
         <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -939,17 +939,17 @@
         <v>101</v>
       </c>
       <c r="B2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C2" t="s">
         <v>149</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>150</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>152</v>
-      </c>
       <c r="F2">
         <v>2</v>
       </c>
@@ -960,7 +960,7 @@
         <v>4</v>
       </c>
       <c r="I2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -968,17 +968,17 @@
         <v>102</v>
       </c>
       <c r="B3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C3" t="s">
+        <v>158</v>
+      </c>
+      <c r="D3" t="s">
+        <v>159</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="C3" t="s">
-        <v>159</v>
-      </c>
-      <c r="D3" t="s">
-        <v>160</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>155</v>
-      </c>
       <c r="F3">
         <v>2</v>
       </c>
@@ -989,7 +989,7 @@
         <v>4</v>
       </c>
       <c r="I3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -1018,7 +1018,7 @@
         <v>2</v>
       </c>
       <c r="I4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -1047,7 +1047,7 @@
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -1076,7 +1076,7 @@
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -1105,7 +1105,7 @@
         <v>4</v>
       </c>
       <c r="I7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -1134,7 +1134,7 @@
         <v>4</v>
       </c>
       <c r="I8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -1163,7 +1163,7 @@
         <v>2</v>
       </c>
       <c r="I9" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -1192,7 +1192,7 @@
         <v>3</v>
       </c>
       <c r="I10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -1221,7 +1221,7 @@
         <v>3</v>
       </c>
       <c r="I11" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -1235,7 +1235,7 @@
         <v>44</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E12" t="s">
         <v>45</v>
@@ -1244,13 +1244,13 @@
         <v>2</v>
       </c>
       <c r="G12" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H12" t="s">
         <v>3</v>
       </c>
       <c r="I12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -1279,7 +1279,7 @@
         <v>12</v>
       </c>
       <c r="I13" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -1308,7 +1308,7 @@
         <v>12</v>
       </c>
       <c r="I14" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -1337,7 +1337,7 @@
         <v>12</v>
       </c>
       <c r="I15" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -1366,7 +1366,7 @@
         <v>12</v>
       </c>
       <c r="I16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -1377,13 +1377,13 @@
         <v>62</v>
       </c>
       <c r="C17" t="s">
+        <v>168</v>
+      </c>
+      <c r="D17" t="s">
         <v>63</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>65</v>
       </c>
       <c r="F17">
         <v>3</v>
@@ -1395,7 +1395,7 @@
         <v>4</v>
       </c>
       <c r="I17" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -1403,16 +1403,16 @@
         <v>303</v>
       </c>
       <c r="B18" t="s">
+        <v>65</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="D18" t="s">
         <v>67</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>68</v>
-      </c>
-      <c r="E18" t="s">
-        <v>69</v>
       </c>
       <c r="F18">
         <v>3</v>
@@ -1424,7 +1424,7 @@
         <v>2</v>
       </c>
       <c r="I18" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -1432,16 +1432,16 @@
         <v>304</v>
       </c>
       <c r="B19" t="s">
+        <v>69</v>
+      </c>
+      <c r="C19" t="s">
         <v>70</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="E19" t="s">
         <v>72</v>
-      </c>
-      <c r="E19" t="s">
-        <v>73</v>
       </c>
       <c r="F19">
         <v>3</v>
@@ -1453,7 +1453,7 @@
         <v>3</v>
       </c>
       <c r="I19" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -1461,16 +1461,16 @@
         <v>305</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C20" t="s">
         <v>74</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>75</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
         <v>76</v>
-      </c>
-      <c r="E20" t="s">
-        <v>77</v>
       </c>
       <c r="F20">
         <v>3</v>
@@ -1482,7 +1482,7 @@
         <v>1</v>
       </c>
       <c r="I20" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -1490,16 +1490,16 @@
         <v>306</v>
       </c>
       <c r="B21" t="s">
+        <v>77</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="D21" t="s">
         <v>79</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
         <v>80</v>
-      </c>
-      <c r="E21" t="s">
-        <v>81</v>
       </c>
       <c r="F21">
         <v>3</v>
@@ -1511,7 +1511,7 @@
         <v>2</v>
       </c>
       <c r="I21" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -1519,16 +1519,16 @@
         <v>307</v>
       </c>
       <c r="B22" t="s">
+        <v>81</v>
+      </c>
+      <c r="C22" t="s">
         <v>82</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>83</v>
       </c>
-      <c r="D22" t="s">
-        <v>84</v>
-      </c>
       <c r="E22" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F22">
         <v>3</v>
@@ -1540,7 +1540,7 @@
         <v>4</v>
       </c>
       <c r="I22" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -1548,28 +1548,28 @@
         <v>308</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C23" t="s">
         <v>85</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
         <v>86</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
         <v>87</v>
-      </c>
-      <c r="E23" t="s">
-        <v>88</v>
       </c>
       <c r="F23">
         <v>3</v>
       </c>
       <c r="G23" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H23" t="s">
         <v>1</v>
       </c>
       <c r="I23" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -1577,28 +1577,28 @@
         <v>309</v>
       </c>
       <c r="B24" t="s">
+        <v>89</v>
+      </c>
+      <c r="C24" t="s">
         <v>90</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
         <v>91</v>
       </c>
-      <c r="D24" t="s">
+      <c r="E24" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>93</v>
       </c>
       <c r="F24">
         <v>3</v>
       </c>
       <c r="G24" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H24" t="s">
         <v>4</v>
       </c>
       <c r="I24" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -1606,16 +1606,16 @@
         <v>310</v>
       </c>
       <c r="B25" t="s">
+        <v>93</v>
+      </c>
+      <c r="C25" t="s">
         <v>94</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E25" t="s">
         <v>95</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="E25" t="s">
-        <v>96</v>
       </c>
       <c r="F25">
         <v>3</v>
@@ -1627,7 +1627,7 @@
         <v>3</v>
       </c>
       <c r="I25" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -1635,28 +1635,28 @@
         <v>311</v>
       </c>
       <c r="B26" t="s">
+        <v>96</v>
+      </c>
+      <c r="C26" t="s">
         <v>97</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
         <v>98</v>
       </c>
-      <c r="D26" t="s">
+      <c r="E26" t="s">
         <v>99</v>
-      </c>
-      <c r="E26" t="s">
-        <v>100</v>
       </c>
       <c r="F26">
         <v>3</v>
       </c>
       <c r="G26" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H26" t="s">
         <v>12</v>
       </c>
       <c r="I26" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
@@ -1664,16 +1664,16 @@
         <v>312</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C27" t="s">
+        <v>101</v>
+      </c>
+      <c r="D27" t="s">
         <v>102</v>
       </c>
-      <c r="D27" t="s">
+      <c r="E27" t="s">
         <v>103</v>
-      </c>
-      <c r="E27" t="s">
-        <v>104</v>
       </c>
       <c r="F27">
         <v>3</v>
@@ -1685,7 +1685,7 @@
         <v>1</v>
       </c>
       <c r="I27" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
@@ -1693,17 +1693,17 @@
         <v>401</v>
       </c>
       <c r="B28" t="s">
+        <v>104</v>
+      </c>
+      <c r="C28" t="s">
         <v>105</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D28" t="s">
         <v>106</v>
       </c>
-      <c r="D28" t="s">
+      <c r="E28" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="E28" s="1" t="s">
-        <v>108</v>
-      </c>
       <c r="F28">
         <v>4</v>
       </c>
@@ -1714,7 +1714,7 @@
         <v>4</v>
       </c>
       <c r="I28" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
@@ -1722,17 +1722,17 @@
         <v>402</v>
       </c>
       <c r="B29" t="s">
+        <v>108</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="D29" t="s">
+        <v>152</v>
+      </c>
+      <c r="E29" t="s">
         <v>110</v>
       </c>
-      <c r="D29" t="s">
-        <v>153</v>
-      </c>
-      <c r="E29" t="s">
-        <v>111</v>
-      </c>
       <c r="F29">
         <v>4</v>
       </c>
@@ -1743,7 +1743,7 @@
         <v>2</v>
       </c>
       <c r="I29" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
@@ -1751,17 +1751,17 @@
         <v>403</v>
       </c>
       <c r="B30" t="s">
+        <v>111</v>
+      </c>
+      <c r="C30" t="s">
         <v>112</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D30" t="s">
         <v>113</v>
       </c>
-      <c r="D30" t="s">
+      <c r="E30" t="s">
         <v>114</v>
       </c>
-      <c r="E30" t="s">
-        <v>115</v>
-      </c>
       <c r="F30">
         <v>4</v>
       </c>
@@ -1772,7 +1772,7 @@
         <v>12</v>
       </c>
       <c r="I30" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
@@ -1780,17 +1780,17 @@
         <v>404</v>
       </c>
       <c r="B31" t="s">
+        <v>115</v>
+      </c>
+      <c r="C31" t="s">
         <v>116</v>
       </c>
-      <c r="C31" t="s">
+      <c r="D31" t="s">
         <v>117</v>
       </c>
-      <c r="D31" t="s">
+      <c r="E31" t="s">
         <v>118</v>
       </c>
-      <c r="E31" t="s">
-        <v>119</v>
-      </c>
       <c r="F31">
         <v>4</v>
       </c>
@@ -1801,7 +1801,7 @@
         <v>12</v>
       </c>
       <c r="I31" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
@@ -1809,16 +1809,16 @@
         <v>405</v>
       </c>
       <c r="B32" t="s">
+        <v>119</v>
+      </c>
+      <c r="C32" t="s">
         <v>120</v>
       </c>
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>121</v>
       </c>
-      <c r="D32" t="s">
-        <v>122</v>
-      </c>
       <c r="E32" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F32">
         <v>4</v>
@@ -1830,7 +1830,7 @@
         <v>4</v>
       </c>
       <c r="I32" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
@@ -1838,16 +1838,16 @@
         <v>406</v>
       </c>
       <c r="B33" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C33" t="s">
         <v>123</v>
       </c>
-      <c r="C33" t="s">
+      <c r="D33" t="s">
         <v>124</v>
       </c>
-      <c r="D33" t="s">
+      <c r="E33" t="s">
         <v>125</v>
-      </c>
-      <c r="E33" t="s">
-        <v>126</v>
       </c>
       <c r="F33">
         <v>4</v>
@@ -1859,7 +1859,7 @@
         <v>1</v>
       </c>
       <c r="I33" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
@@ -1867,16 +1867,16 @@
         <v>407</v>
       </c>
       <c r="B34" t="s">
+        <v>126</v>
+      </c>
+      <c r="C34" t="s">
         <v>127</v>
       </c>
-      <c r="C34" t="s">
+      <c r="D34" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="E34" t="s">
         <v>129</v>
-      </c>
-      <c r="E34" t="s">
-        <v>130</v>
       </c>
       <c r="F34">
         <v>4</v>
@@ -1888,7 +1888,7 @@
         <v>3</v>
       </c>
       <c r="I34" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
@@ -1896,16 +1896,16 @@
         <v>408</v>
       </c>
       <c r="B35" t="s">
+        <v>130</v>
+      </c>
+      <c r="C35" t="s">
         <v>131</v>
       </c>
-      <c r="C35" t="s">
+      <c r="D35" t="s">
         <v>132</v>
       </c>
-      <c r="D35" t="s">
-        <v>133</v>
-      </c>
       <c r="E35" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F35">
         <v>4</v>
@@ -1917,7 +1917,7 @@
         <v>12</v>
       </c>
       <c r="I35" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
@@ -1925,16 +1925,16 @@
         <v>409</v>
       </c>
       <c r="B36" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C36" t="s">
         <v>134</v>
       </c>
-      <c r="C36" t="s">
+      <c r="D36" t="s">
         <v>135</v>
       </c>
-      <c r="D36" t="s">
+      <c r="E36" t="s">
         <v>136</v>
-      </c>
-      <c r="E36" t="s">
-        <v>137</v>
       </c>
       <c r="F36">
         <v>4</v>
@@ -1946,7 +1946,7 @@
         <v>1</v>
       </c>
       <c r="I36" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
@@ -1954,16 +1954,16 @@
         <v>410</v>
       </c>
       <c r="B37" t="s">
+        <v>137</v>
+      </c>
+      <c r="C37" t="s">
         <v>138</v>
       </c>
-      <c r="C37" t="s">
+      <c r="D37" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="E37" t="s">
         <v>140</v>
-      </c>
-      <c r="E37" t="s">
-        <v>141</v>
       </c>
       <c r="F37">
         <v>4</v>
@@ -1975,7 +1975,7 @@
         <v>3</v>
       </c>
       <c r="I37" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
@@ -1983,17 +1983,17 @@
         <v>411</v>
       </c>
       <c r="B38" t="s">
+        <v>141</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D38" t="s">
         <v>142</v>
       </c>
-      <c r="C38" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="D38" t="s">
+      <c r="E38" t="s">
         <v>143</v>
       </c>
-      <c r="E38" t="s">
-        <v>144</v>
-      </c>
       <c r="F38">
         <v>4</v>
       </c>
@@ -2004,7 +2004,7 @@
         <v>2</v>
       </c>
       <c r="I38" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
@@ -2012,17 +2012,17 @@
         <v>412</v>
       </c>
       <c r="B39" t="s">
+        <v>144</v>
+      </c>
+      <c r="C39" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="D39" t="s">
         <v>146</v>
       </c>
-      <c r="D39" t="s">
+      <c r="E39" t="s">
         <v>147</v>
       </c>
-      <c r="E39" t="s">
-        <v>148</v>
-      </c>
       <c r="F39">
         <v>4</v>
       </c>
@@ -2033,7 +2033,7 @@
         <v>2</v>
       </c>
       <c r="I39" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>

--- a/data_raw/item_banks/SRS_itembank.xlsx
+++ b/data_raw/item_banks/SRS_itembank.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\science\DOTS\development\packages\mpipoet\data_raw\item_banks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60F128BE-3D2B-47B9-9A77-04F6F4421C17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28DDEC6F-71B9-4DAE-ADD9-F7D2359218C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4845" yWindow="4845" windowWidth="21600" windowHeight="11385" xr2:uid="{F25810CC-C51F-2546-B028-E8AB54E0A732}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F25810CC-C51F-2546-B028-E8AB54E0A732}"/>
   </bookViews>
   <sheets>
     <sheet name="SRS_items" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="177">
   <si>
     <t>ID</t>
   </si>
@@ -532,16 +532,54 @@
   </si>
   <si>
     <t>Gleichgewicht</t>
+  </si>
+  <si>
+    <t>schnelle Autos</t>
+  </si>
+  <si>
+    <t>fiese Typen</t>
+  </si>
+  <si>
+    <t>großes Ego</t>
+  </si>
+  <si>
+    <t>alte Schule</t>
+  </si>
+  <si>
+    <t>SCHNELLe AUtos</t>
+  </si>
+  <si>
+    <t>FIEse TYpen</t>
+  </si>
+  <si>
+    <t>GROßes Ego</t>
+  </si>
+  <si>
+    <t>ALte SCHUle</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -573,9 +611,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -890,10 +937,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E705D40-5916-A744-8E1C-6DD07F736810}">
-  <dimension ref="A1:I39"/>
+  <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -993,78 +1040,78 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>201</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4">
-        <v>2</v>
-      </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" t="s">
-        <v>2</v>
-      </c>
-      <c r="I4" t="s">
-        <v>156</v>
+      <c r="A4" s="2">
+        <v>103</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="F4" s="2">
+        <v>4</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>202</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5">
-        <v>2</v>
-      </c>
-      <c r="G5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H5" t="s">
-        <v>1</v>
-      </c>
-      <c r="I5" t="s">
-        <v>156</v>
+      <c r="A5" s="2">
+        <v>104</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="F5" s="2">
+        <v>4</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>203</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" t="s">
-        <v>18</v>
+        <v>201</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="F6">
         <v>2</v>
@@ -1073,7 +1120,7 @@
         <v>12</v>
       </c>
       <c r="H6" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I6" t="s">
         <v>156</v>
@@ -1081,19 +1128,19 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>204</v>
-      </c>
-      <c r="B7" t="s">
-        <v>21</v>
+        <v>202</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>24</v>
+        <v>15</v>
+      </c>
+      <c r="E7" t="s">
+        <v>16</v>
       </c>
       <c r="F7">
         <v>2</v>
@@ -1102,7 +1149,7 @@
         <v>12</v>
       </c>
       <c r="H7" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I7" t="s">
         <v>156</v>
@@ -1110,28 +1157,28 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>205</v>
-      </c>
-      <c r="B8" t="s">
-        <v>26</v>
+        <v>203</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D8" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
+      </c>
+      <c r="E8" t="s">
+        <v>20</v>
       </c>
       <c r="F8">
         <v>2</v>
       </c>
       <c r="G8" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="H8" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I8" t="s">
         <v>156</v>
@@ -1139,28 +1186,28 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>31</v>
+        <v>21</v>
+      </c>
+      <c r="C9" t="s">
+        <v>22</v>
       </c>
       <c r="D9" t="s">
-        <v>32</v>
-      </c>
-      <c r="E9" t="s">
-        <v>33</v>
+        <v>23</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="F9">
         <v>2</v>
       </c>
       <c r="G9" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="H9" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I9" t="s">
         <v>156</v>
@@ -1168,19 +1215,19 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B10" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>36</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E10" t="s">
-        <v>38</v>
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="F10">
         <v>2</v>
@@ -1189,7 +1236,7 @@
         <v>29</v>
       </c>
       <c r="H10" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I10" t="s">
         <v>156</v>
@@ -1197,19 +1244,19 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C11" t="s">
-        <v>40</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>41</v>
+        <v>30</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" t="s">
+        <v>32</v>
       </c>
       <c r="E11" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="F11">
         <v>2</v>
@@ -1218,7 +1265,7 @@
         <v>34</v>
       </c>
       <c r="H11" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I11" t="s">
         <v>156</v>
@@ -1226,25 +1273,25 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B12" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C12" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>160</v>
+        <v>37</v>
       </c>
       <c r="E12" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="F12">
         <v>2</v>
       </c>
       <c r="G12" t="s">
-        <v>161</v>
+        <v>29</v>
       </c>
       <c r="H12" t="s">
         <v>3</v>
@@ -1255,28 +1302,28 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B13" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C13" t="s">
-        <v>47</v>
-      </c>
-      <c r="D13" t="s">
-        <v>48</v>
+        <v>40</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="E13" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="F13">
         <v>2</v>
       </c>
       <c r="G13" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="H13" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="I13" t="s">
         <v>156</v>
@@ -1284,28 +1331,28 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B14" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C14" t="s">
-        <v>51</v>
-      </c>
-      <c r="D14" t="s">
-        <v>52</v>
+        <v>44</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>160</v>
       </c>
       <c r="E14" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="F14">
         <v>2</v>
       </c>
       <c r="G14" t="s">
-        <v>29</v>
+        <v>161</v>
       </c>
       <c r="H14" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="I14" t="s">
         <v>156</v>
@@ -1313,25 +1360,25 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B15" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="C15" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D15" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="E15" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="F15">
         <v>2</v>
       </c>
       <c r="G15" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="H15" t="s">
         <v>12</v>
@@ -1342,25 +1389,25 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>301</v>
+        <v>211</v>
       </c>
       <c r="B16" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="C16" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="D16" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="E16" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="F16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G16" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="H16" t="s">
         <v>12</v>
@@ -1371,28 +1418,28 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>302</v>
+        <v>212</v>
       </c>
       <c r="B17" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C17" t="s">
-        <v>168</v>
+        <v>55</v>
       </c>
       <c r="D17" t="s">
-        <v>63</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>64</v>
+        <v>56</v>
+      </c>
+      <c r="E17" t="s">
+        <v>57</v>
       </c>
       <c r="F17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G17" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="H17" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="I17" t="s">
         <v>156</v>
@@ -1400,19 +1447,19 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B18" t="s">
-        <v>65</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>66</v>
+        <v>58</v>
+      </c>
+      <c r="C18" t="s">
+        <v>59</v>
       </c>
       <c r="D18" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="E18" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="F18">
         <v>3</v>
@@ -1421,7 +1468,7 @@
         <v>12</v>
       </c>
       <c r="H18" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="I18" t="s">
         <v>156</v>
@@ -1429,28 +1476,28 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B19" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="C19" t="s">
-        <v>70</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E19" t="s">
-        <v>72</v>
+        <v>168</v>
+      </c>
+      <c r="D19" t="s">
+        <v>63</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="F19">
         <v>3</v>
       </c>
       <c r="G19" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="H19" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I19" t="s">
         <v>156</v>
@@ -1458,19 +1505,19 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>305</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C20" t="s">
-        <v>74</v>
+        <v>303</v>
+      </c>
+      <c r="B20" t="s">
+        <v>65</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="D20" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="E20" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="F20">
         <v>3</v>
@@ -1479,7 +1526,7 @@
         <v>12</v>
       </c>
       <c r="H20" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I20" t="s">
         <v>156</v>
@@ -1487,28 +1534,28 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B21" t="s">
-        <v>77</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D21" t="s">
-        <v>79</v>
+        <v>69</v>
+      </c>
+      <c r="C21" t="s">
+        <v>70</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="E21" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="F21">
         <v>3</v>
       </c>
       <c r="G21" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H21" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I21" t="s">
         <v>156</v>
@@ -1516,28 +1563,28 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>307</v>
-      </c>
-      <c r="B22" t="s">
-        <v>81</v>
+        <v>305</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="C22" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="D22" t="s">
-        <v>83</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>162</v>
+        <v>75</v>
+      </c>
+      <c r="E22" t="s">
+        <v>76</v>
       </c>
       <c r="F22">
         <v>3</v>
       </c>
       <c r="G22" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="H22" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I22" t="s">
         <v>156</v>
@@ -1545,28 +1592,28 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>308</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C23" t="s">
-        <v>85</v>
+        <v>306</v>
+      </c>
+      <c r="B23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="D23" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="E23" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="F23">
         <v>3</v>
       </c>
       <c r="G23" t="s">
-        <v>88</v>
+        <v>29</v>
       </c>
       <c r="H23" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I23" t="s">
         <v>156</v>
@@ -1574,25 +1621,25 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B24" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C24" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="D24" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>92</v>
+        <v>162</v>
       </c>
       <c r="F24">
         <v>3</v>
       </c>
       <c r="G24" t="s">
-        <v>88</v>
+        <v>34</v>
       </c>
       <c r="H24" t="s">
         <v>4</v>
@@ -1603,28 +1650,28 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>310</v>
-      </c>
-      <c r="B25" t="s">
-        <v>93</v>
+        <v>308</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>84</v>
       </c>
       <c r="C25" t="s">
-        <v>94</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>163</v>
+        <v>85</v>
+      </c>
+      <c r="D25" t="s">
+        <v>86</v>
       </c>
       <c r="E25" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="F25">
         <v>3</v>
       </c>
       <c r="G25" t="s">
-        <v>12</v>
+        <v>88</v>
       </c>
       <c r="H25" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I25" t="s">
         <v>156</v>
@@ -1632,28 +1679,28 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B26" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="C26" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="D26" t="s">
-        <v>98</v>
-      </c>
-      <c r="E26" t="s">
-        <v>99</v>
+        <v>91</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="F26">
         <v>3</v>
       </c>
       <c r="G26" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="H26" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="I26" t="s">
         <v>156</v>
@@ -1661,19 +1708,19 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>312</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>164</v>
+        <v>310</v>
+      </c>
+      <c r="B27" t="s">
+        <v>93</v>
       </c>
       <c r="C27" t="s">
-        <v>101</v>
-      </c>
-      <c r="D27" t="s">
-        <v>102</v>
+        <v>94</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>163</v>
       </c>
       <c r="E27" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="F27">
         <v>3</v>
@@ -1682,7 +1729,7 @@
         <v>12</v>
       </c>
       <c r="H27" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I27" t="s">
         <v>156</v>
@@ -1690,28 +1737,28 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>401</v>
+        <v>311</v>
       </c>
       <c r="B28" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="C28" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="D28" t="s">
-        <v>106</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>107</v>
+        <v>98</v>
+      </c>
+      <c r="E28" t="s">
+        <v>99</v>
       </c>
       <c r="F28">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G28" t="s">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="H28" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="I28" t="s">
         <v>156</v>
@@ -1719,28 +1766,28 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>402</v>
-      </c>
-      <c r="B29" t="s">
-        <v>108</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>109</v>
+        <v>312</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C29" t="s">
+        <v>101</v>
       </c>
       <c r="D29" t="s">
-        <v>152</v>
+        <v>102</v>
       </c>
       <c r="E29" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="F29">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G29" t="s">
         <v>12</v>
       </c>
       <c r="H29" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I29" t="s">
         <v>156</v>
@@ -1748,19 +1795,19 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B30" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C30" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="D30" t="s">
-        <v>113</v>
-      </c>
-      <c r="E30" t="s">
-        <v>114</v>
+        <v>106</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>107</v>
       </c>
       <c r="F30">
         <v>4</v>
@@ -1769,7 +1816,7 @@
         <v>12</v>
       </c>
       <c r="H30" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="I30" t="s">
         <v>156</v>
@@ -1777,19 +1824,19 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B31" t="s">
-        <v>115</v>
-      </c>
-      <c r="C31" t="s">
-        <v>116</v>
+        <v>108</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>109</v>
       </c>
       <c r="D31" t="s">
-        <v>117</v>
+        <v>152</v>
       </c>
       <c r="E31" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="F31">
         <v>4</v>
@@ -1798,7 +1845,7 @@
         <v>12</v>
       </c>
       <c r="H31" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="I31" t="s">
         <v>156</v>
@@ -1806,28 +1853,28 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B32" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="C32" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="D32" t="s">
-        <v>121</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>165</v>
+        <v>113</v>
+      </c>
+      <c r="E32" t="s">
+        <v>114</v>
       </c>
       <c r="F32">
         <v>4</v>
       </c>
       <c r="G32" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="H32" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="I32" t="s">
         <v>156</v>
@@ -1835,28 +1882,28 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>406</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>122</v>
+        <v>404</v>
+      </c>
+      <c r="B33" t="s">
+        <v>115</v>
       </c>
       <c r="C33" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="D33" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="E33" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="F33">
         <v>4</v>
       </c>
       <c r="G33" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="H33" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="I33" t="s">
         <v>156</v>
@@ -1864,28 +1911,28 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B34" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="C34" t="s">
-        <v>127</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="E34" t="s">
-        <v>129</v>
+        <v>120</v>
+      </c>
+      <c r="D34" t="s">
+        <v>121</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>165</v>
       </c>
       <c r="F34">
         <v>4</v>
       </c>
       <c r="G34" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H34" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I34" t="s">
         <v>156</v>
@@ -1893,28 +1940,28 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>408</v>
-      </c>
-      <c r="B35" t="s">
-        <v>130</v>
+        <v>406</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>122</v>
       </c>
       <c r="C35" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="D35" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="E35" t="s">
-        <v>166</v>
+        <v>125</v>
       </c>
       <c r="F35">
         <v>4</v>
       </c>
       <c r="G35" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H35" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I35" t="s">
         <v>156</v>
@@ -1922,28 +1969,28 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>409</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>133</v>
+        <v>407</v>
+      </c>
+      <c r="B36" t="s">
+        <v>126</v>
       </c>
       <c r="C36" t="s">
-        <v>134</v>
-      </c>
-      <c r="D36" t="s">
-        <v>135</v>
+        <v>127</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>128</v>
       </c>
       <c r="E36" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="F36">
         <v>4</v>
       </c>
       <c r="G36" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="H36" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I36" t="s">
         <v>156</v>
@@ -1951,28 +1998,28 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B37" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="C37" t="s">
-        <v>138</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>139</v>
+        <v>131</v>
+      </c>
+      <c r="D37" t="s">
+        <v>132</v>
       </c>
       <c r="E37" t="s">
-        <v>140</v>
+        <v>166</v>
       </c>
       <c r="F37">
         <v>4</v>
       </c>
       <c r="G37" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H37" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="I37" t="s">
         <v>156</v>
@@ -1980,19 +2027,19 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>411</v>
-      </c>
-      <c r="B38" t="s">
-        <v>141</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>167</v>
+        <v>409</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C38" t="s">
+        <v>134</v>
       </c>
       <c r="D38" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="E38" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="F38">
         <v>4</v>
@@ -2001,7 +2048,7 @@
         <v>12</v>
       </c>
       <c r="H38" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I38" t="s">
         <v>156</v>
@@ -2009,30 +2056,88 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39">
+        <v>410</v>
+      </c>
+      <c r="B39" t="s">
+        <v>137</v>
+      </c>
+      <c r="C39" t="s">
+        <v>138</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E39" t="s">
+        <v>140</v>
+      </c>
+      <c r="F39">
+        <v>4</v>
+      </c>
+      <c r="G39" t="s">
+        <v>29</v>
+      </c>
+      <c r="H39" t="s">
+        <v>3</v>
+      </c>
+      <c r="I39" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>411</v>
+      </c>
+      <c r="B40" t="s">
+        <v>141</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D40" t="s">
+        <v>142</v>
+      </c>
+      <c r="E40" t="s">
+        <v>143</v>
+      </c>
+      <c r="F40">
+        <v>4</v>
+      </c>
+      <c r="G40" t="s">
+        <v>12</v>
+      </c>
+      <c r="H40" t="s">
+        <v>2</v>
+      </c>
+      <c r="I40" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41">
         <v>412</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B41" t="s">
         <v>144</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C41" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D41" t="s">
         <v>146</v>
       </c>
-      <c r="E39" t="s">
+      <c r="E41" t="s">
         <v>147</v>
       </c>
-      <c r="F39">
-        <v>4</v>
-      </c>
-      <c r="G39" t="s">
-        <v>12</v>
-      </c>
-      <c r="H39" t="s">
+      <c r="F41">
+        <v>4</v>
+      </c>
+      <c r="G41" t="s">
+        <v>12</v>
+      </c>
+      <c r="H41" t="s">
         <v>2</v>
       </c>
-      <c r="I39" t="s">
+      <c r="I41" t="s">
         <v>156</v>
       </c>
     </row>
